--- a/awx/awqx_app/testData/alk_test_results.xlsx
+++ b/awx/awqx_app/testData/alk_test_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="72">
   <si>
     <t>ActivityIdentifier</t>
   </si>
@@ -61,6 +61,9 @@
     <t>DetectionQuantitationTypeName</t>
   </si>
   <si>
+    <t>MDL</t>
+  </si>
+  <si>
     <t>DetectionQuantitationTypeNameUOM</t>
   </si>
   <si>
@@ -217,7 +220,13 @@
     <t>Actual</t>
   </si>
   <si>
-    <t>EPA</t>
+    <t>Preliminary</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>USEPA</t>
   </si>
   <si>
     <t>Method Detection Level</t>
@@ -582,13 +591,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,845 +646,1136 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2">
         <v>43658</v>
       </c>
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" t="s">
+        <v>69</v>
+      </c>
       <c r="M2">
         <v>310.1</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>71</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2">
         <v>43658</v>
       </c>
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" t="s">
+        <v>69</v>
+      </c>
       <c r="M3">
         <v>310.1</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O3" t="s">
-        <v>68</v>
-      </c>
-      <c r="P3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>71</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4">
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2">
         <v>43658</v>
       </c>
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
       <c r="M4">
         <v>310.1</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>71</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" s="2">
         <v>43658</v>
       </c>
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
       <c r="M5">
         <v>310.1</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>68</v>
-      </c>
-      <c r="P5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>71</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2">
         <v>43658</v>
       </c>
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" t="s">
+        <v>69</v>
+      </c>
       <c r="M6">
         <v>310.1</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O6" t="s">
-        <v>68</v>
-      </c>
-      <c r="P6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>71</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2">
         <v>43658</v>
       </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" t="s">
+        <v>69</v>
+      </c>
       <c r="M7">
         <v>310.1</v>
       </c>
       <c r="N7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>71</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8">
         <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G8" s="2">
         <v>43658</v>
       </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" t="s">
+        <v>69</v>
+      </c>
       <c r="M8">
         <v>310.1</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>71</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G9" s="2">
         <v>43658</v>
       </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" t="s">
+        <v>69</v>
+      </c>
       <c r="M9">
         <v>310.1</v>
       </c>
       <c r="N9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O9" t="s">
-        <v>68</v>
-      </c>
-      <c r="P9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>71</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10">
         <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2">
         <v>43658</v>
       </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
       <c r="M10">
         <v>310.1</v>
       </c>
       <c r="N10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O10" t="s">
-        <v>68</v>
-      </c>
-      <c r="P10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>71</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11">
         <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="2">
         <v>43658</v>
       </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" t="s">
+        <v>69</v>
+      </c>
       <c r="M11">
         <v>310.1</v>
       </c>
       <c r="N11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O11" t="s">
-        <v>68</v>
-      </c>
-      <c r="P11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>71</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D12">
         <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="2">
         <v>43658</v>
       </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" t="s">
+        <v>69</v>
+      </c>
       <c r="M12">
         <v>310.1</v>
       </c>
       <c r="N12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O12" t="s">
-        <v>68</v>
-      </c>
-      <c r="P12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>71</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13">
         <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="2">
         <v>43658</v>
       </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" t="s">
+        <v>69</v>
+      </c>
       <c r="M13">
         <v>310.1</v>
       </c>
       <c r="N13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O13" t="s">
-        <v>68</v>
-      </c>
-      <c r="P13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>71</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14">
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G14" s="2">
         <v>43679</v>
       </c>
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" t="s">
+        <v>69</v>
+      </c>
       <c r="M14">
         <v>310.1</v>
       </c>
       <c r="N14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O14" t="s">
-        <v>68</v>
-      </c>
-      <c r="P14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>71</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15">
         <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G15" s="2">
         <v>43679</v>
       </c>
+      <c r="H15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" t="s">
+        <v>69</v>
+      </c>
       <c r="M15">
         <v>310.1</v>
       </c>
       <c r="N15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O15" t="s">
-        <v>68</v>
-      </c>
-      <c r="P15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>71</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16">
         <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" s="2">
         <v>43679</v>
       </c>
+      <c r="H16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" t="s">
+        <v>69</v>
+      </c>
       <c r="M16">
         <v>310.1</v>
       </c>
       <c r="N16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O16" t="s">
-        <v>68</v>
-      </c>
-      <c r="P16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>71</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D17">
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G17" s="2">
         <v>43679</v>
       </c>
+      <c r="H17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" t="s">
+        <v>69</v>
+      </c>
       <c r="M17">
         <v>310.1</v>
       </c>
       <c r="N17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O17" t="s">
-        <v>68</v>
-      </c>
-      <c r="P17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>71</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18">
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G18" s="2">
         <v>43679</v>
       </c>
+      <c r="H18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" t="s">
+        <v>69</v>
+      </c>
       <c r="M18">
         <v>310.1</v>
       </c>
       <c r="N18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O18" t="s">
-        <v>68</v>
-      </c>
-      <c r="P18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>71</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19">
         <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G19" s="2">
         <v>43679</v>
       </c>
+      <c r="H19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" t="s">
+        <v>69</v>
+      </c>
       <c r="M19">
         <v>310.1</v>
       </c>
       <c r="N19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O19" t="s">
-        <v>68</v>
-      </c>
-      <c r="P19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>71</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20">
         <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G20" s="2">
         <v>43679</v>
       </c>
+      <c r="H20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" t="s">
+        <v>69</v>
+      </c>
       <c r="M20">
         <v>310.1</v>
       </c>
       <c r="N20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O20" t="s">
-        <v>68</v>
-      </c>
-      <c r="P20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>71</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G21" s="2">
         <v>43679</v>
       </c>
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21" t="s">
+        <v>69</v>
+      </c>
       <c r="M21">
         <v>310.1</v>
       </c>
       <c r="N21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O21" t="s">
-        <v>68</v>
-      </c>
-      <c r="P21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>71</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22">
         <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G22" s="2">
         <v>43679</v>
       </c>
+      <c r="H22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" t="s">
+        <v>69</v>
+      </c>
       <c r="M22">
         <v>310.1</v>
       </c>
       <c r="N22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O22" t="s">
-        <v>68</v>
-      </c>
-      <c r="P22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>71</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23">
         <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G23" s="2">
         <v>43679</v>
       </c>
+      <c r="H23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" t="s">
+        <v>69</v>
+      </c>
       <c r="M23">
         <v>310.1</v>
       </c>
       <c r="N23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O23" t="s">
-        <v>68</v>
-      </c>
-      <c r="P23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>71</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D24">
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G24" s="2">
         <v>43679</v>
       </c>
+      <c r="H24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" t="s">
+        <v>69</v>
+      </c>
       <c r="M24">
         <v>310.1</v>
       </c>
       <c r="N24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O24" t="s">
-        <v>68</v>
-      </c>
-      <c r="P24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>71</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D25">
         <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G25" s="2">
         <v>43679</v>
       </c>
+      <c r="H25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" t="s">
+        <v>69</v>
+      </c>
       <c r="M25">
         <v>310.1</v>
       </c>
       <c r="N25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O25" t="s">
-        <v>68</v>
-      </c>
-      <c r="P25" t="s">
-        <v>65</v>
+        <v>71</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
